--- a/Calendario2021/proyecto/RubricaProyecto2020finalEvidencias.xlsx
+++ b/Calendario2021/proyecto/RubricaProyecto2020finalEvidencias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\CalendarioAgo20L\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\Calendario2021\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF1EB48-3035-4BE8-85F1-47762B8949AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67178010-80D7-4A06-BDCB-422922E4A61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4041EFBF-A8F0-4CC2-A771-A6DAB0F78564}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Criterio</t>
   </si>
@@ -135,13 +135,19 @@
     <t>Uso correcto de estructuras de repetición.</t>
   </si>
   <si>
-    <t>Uso correcto de listas o matrices.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se cumplen las reglas para la definición de nombres de variables y funciones. Las variables tienen nombres significativos. </t>
   </si>
   <si>
     <t>El programa corre</t>
+  </si>
+  <si>
+    <t>Uso correcto de listas, matrices o strings.</t>
+  </si>
+  <si>
+    <t>Tecnologías de vanguardia / Archivos de texto</t>
+  </si>
+  <si>
+    <t>Hay algún elemento nuevo o herramienta externa o incluyen el uso correcto de Archivos de texto.</t>
   </si>
 </sst>
 </file>
@@ -369,6 +375,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,12 +396,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -391,18 +409,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B623DB-8C9B-4DC2-BABD-C334BAFE5583}">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,29 +751,29 @@
   <sheetData>
     <row r="1" spans="2:5" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -776,125 +782,115 @@
       <c r="D4" s="4">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4">
         <v>0.15</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D10" s="4">
         <v>0.05</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
         <v>0.05</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="2:5" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
         <v>0.1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="1">
-        <f>SUM(D4:D13)</f>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="1">
+        <f>SUM(D4:D12)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -920,12 +916,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -942,7 +938,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -951,39 +947,39 @@
       <c r="D4" s="4">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>0.15</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>0.05</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
@@ -995,7 +991,7 @@
       <c r="D8" s="4">
         <v>0.2</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:5" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -1007,10 +1003,10 @@
       <c r="D9" s="4">
         <v>0.1</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="2:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1019,29 +1015,29 @@
       <c r="D10" s="4">
         <v>0.05</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4">
         <v>0.05</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>0.05</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
